--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>llf1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,18 +93,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,15 +397,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,15 +424,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>18076757556</v>
       </c>
     </row>
@@ -456,7 +446,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>18076757558</v>
       </c>
     </row>
